--- a/graph_generation/results/hermes_llama2/level_8/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_8/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>prompt</t>
   </si>
@@ -85,22 +85,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 1 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
     </t>
   </si>
   <si>
@@ -159,26 +159,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0
+ A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 5 0 0 5 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -231,27 +231,28 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 5 0 0 3 0 0 0 0 0 0
- F 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 4 0 0 0 0 2 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 2 0 0 5 0 4 0 0 1 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -304,24 +305,23 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 5 0 0 5 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 5 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0
+ F 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 5 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -380,26 +380,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 4 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4
+ A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 5 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ H 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 3 0 0 3 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -452,25 +452,28 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 3 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 2 0 5 0 4 0 3 0 0 0 0
- G 0 0 0 5 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 5 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 2 0
- J 0 0 0 0 0 0 5 0 0 0 0 0 2
- K 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 2 0 0 5 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -523,23 +526,24 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- E 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 1 0 1 0 1 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 5 0 0 4 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0
     </t>
   </si>
   <si>
@@ -599,21 +603,21 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- F 0 4 0 0 0 0 5 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 1 0 0 2 0 2 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -672,22 +676,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 2 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 3 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 3 0 4 0 0 3 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
     </t>
   </si>
   <si>
@@ -746,22 +750,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 3 0 0 5 0 4 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 3 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 2 0 0 4 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2
+ F 0 4 0 0 0 0 2 0 0 3 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 3 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
     </t>
   </si>
   <si>
@@ -771,23 +775,17 @@
     <t>No possible path from A to O</t>
   </si>
   <si>
-    <t>No possible path from A to M</t>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from A to P:
+A -&gt; C -&gt; F -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+The total cost of this path is 5 + 0 + 0 + 0 + 0 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 9.</t>
   </si>
   <si>
     <t>The least cost path from node A to node P is not possible as there is no path between A and P in the given adjacency matrix.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from A to O:
-A -&gt; D -&gt; E -&gt; L -&gt; O
-The total cost of this path is 3 + 5 + 1 + 2 = 11.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node M is A -&gt; F -&gt; L -&gt; M with a total cost of 5.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from A to O:
-A -&gt; B -&gt; J -&gt; L -&gt; N -&gt; O
-The total cost of this path is 4 + 1 + 2 + 2 + 3 = 12.</t>
+A -&gt; B -&gt; F -&gt; I -&gt; J -&gt; L -&gt; N -&gt; O
+The total cost of this path is 3 + 0 + 5 + 2 + 0 + 0 + 0 + 3 = 13.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -1179,10 +1177,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1196,7 +1194,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1204,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1218,13 +1216,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1238,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1246,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1260,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1280,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1294,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1308,7 +1306,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
